--- a/outputs/CHENNAI5.xlsx
+++ b/outputs/CHENNAI5.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The image shows a repository page in GitHub, which lists files and folders related to the project. While this page contains a lot of information about the project, it does not clearly indicate how to find the list of issues. ABI, who prefers comprehensive information and step-by-step instructions, might not immediately recognize this as a step toward finding issues. Additionally, ABI's low confidence in unfamiliar computing tasks and aversion to tinkering would make it less likely for them to explore this page further without clear guidance.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly shows a repository with various files and folders, which is a common place to look for issues in a project. ABI, being motivated to accomplish their task, would likely consider finding the list of issues as a necessary step. Additionally, ABI's comprehensive information processing style would lead them to explore the repository to gather all relevant information, including the list of issues.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style, 6. None of the Above
-Why: The page clearly shows the "Issues" tab on the left sidebar, and the list of issues is prominently displayed. This aligns well with ABI's comprehensive information processing style as the issues are listed in a straightforward manner. The action of hovering over "Issues" and clicking on "List" is intuitive and requires minimal technical knowledge, making it easy for ABI to understand and perform. There is no need for ABI to tinker or explore unfamiliar features, reducing the risk and complexity involved.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" tab is clearly visible on the left sidebar, and the list of issues is prominently displayed on the page. ABI, motivated to find an issue to solve, would recognize that clicking on "Issues" and then viewing the list is a logical step. The page layout is straightforward and aligns with ABI's comprehensive information processing style, making it easy for them to understand what to do next.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: Once ABI lands on this page, it is clear that they are viewing the list of issues, which is the subgoal they aimed to achieve. The page title and the list of issues provide clear feedback that ABI is on the right track. The issues are well-organized and easy to scan, fitting ABI's comprehensive information processing style. There is sufficient information available for ABI to understand that they have made progress toward their goal of finding an issue to solve.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Issues," ABI will land on a page that clearly lists various issues, complete with titles, labels, and statuses. This page provides a comprehensive view of the issues, which aligns with ABI's information processing style. The clear presentation of the issues will make ABI feel confident that they are making progress toward their goal of finding an issue to solve. The detailed information available on the page will help ABI gather all the necessary information to proceed.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues along with their statuses, titles, and other relevant details. ABI, who is motivated to accomplish tasks and prefers comprehensive information, would recognize that reviewing this list is a necessary step toward finding the most appropriate issue to solve. The page layout supports ABI's information processing style by presenting the issues in an organized and detailed manner, making it clear that this is a step toward achieving the overall use case.</t>
+Why: ABI is motivated to find an issue to solve, and identifying the most appropriate issue is a logical step in this process. The page provides a list of issues with relevant details such as titles, labels, and statuses, which aligns with ABI's comprehensive information processing style. This will help ABI in evaluating and selecting the most appropriate issue to work on, making it a clear step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style, 6. None of the Above
-Why: The page lists issues in a clear and organized manner, with titles and statuses that ABI can read and understand. ABI's comprehensive information processing style will be supported by the layout, which allows them to scan through the issues and gather the necessary details. The action of reading through the issues to find an appropriate one is straightforward and does not require any unfamiliar technical skills, making it easy for ABI to know what to do at this step. The page provides all the relevant information needed for ABI to take this action confidently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with titles, labels, and statuses, making it straightforward for ABI to read through and evaluate them. ABI is motivated to find an appropriate issue to solve, and the comprehensive information provided on the page aligns with their information processing style. The layout and details are sufficient for ABI to understand what to do at this step and to take the action of reading through the issues to find the most appropriate one.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does provide a list of issues, it might not give ABI enough information to determine if they're making progress toward their goal. The titles and brief descriptions of the issues may not provide sufficient detail for ABI to ascertain the scope or relevance of an issue without clicking into each one. Given ABI's comprehensive information processing style, they would likely need more detailed information to feel confident they are choosing the most appropriate issue. Additionally, ABI's low computer self-efficacy could make them hesitant to proceed without clear indicators that they are on the right track. They might feel uncertain about whether they have enough information to move forward.</t>
+Why: While the page provides a list of issues, the information presented may not be comprehensive enough for ABI to determine if they have made the right choice. ABI's comprehensive information processing style requires detailed information to feel confident in their progress. The titles and labels alone may not provide enough context for ABI to fully understand the issues without additional details. Additionally, ABI's low computer self-efficacy might make them doubt if they have selected the most appropriate issue without more explicit guidance or detailed descriptions.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: The page is straightforward and presents a list of issues with clear identifiers such as issue numbers, titles, and labels. ABI can easily see issue #136 and click on it to get more details. The action of clicking on an issue number to view more information is intuitive and does not require any advanced technical skills. Given ABI's comprehensive information processing style, they would understand that clicking on an issue will provide more detailed information, which is necessary to determine if it is appropriate to solve.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to click on an issue to get more details. ABI is motivated to find an appropriate issue to solve, and clicking on an issue to read more about it is a logical step in this process. The layout and presentation of the issues align with ABI's comprehensive information processing style, making it clear that clicking on an issue will provide more information.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 6. None of the Above
-Why: After clicking on issue #136, ABI will land on a page that provides detailed information about the issue, including a clear description, steps to reproduce, and relevant files to change. This aligns well with ABI's comprehensive information processing style, as they will have all the necessary information to understand the issue and determine if it is appropriate for them to solve. The detailed context and instructions will also make ABI feel confident that they are making progress toward their goal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the description, steps to reproduce, and potential solutions. This aligns with ABI's comprehensive information processing style, allowing them to gather all the necessary details to understand the issue fully. The clear and detailed presentation will make ABI feel confident that they are making progress toward their goal of finding an appropriate issue to solve.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI5.xlsx
+++ b/outputs/CHENNAI5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or link to a list of issues. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding the list of issues. Additionally, due to her low computer self-efficacy, she might feel uncertain about where to navigate next without explicit guidance.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
+Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and is risk-averse, would not likely think of this page as a step toward finding a list of issues. The lack of explicit instructions or clear navigation to the issues list would make ABI hesitant and unsure, affecting her motivation and confidence in proceeding.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly shows a list of issues, and the "Issues" tab is prominently displayed in the left-hand navigation menu. This aligns with Abi's comprehensive information processing style, as she can see the relevant information directly. Additionally, the action of hovering over "Issues" and clicking on "List" is straightforward and does not require any unfamiliar technical knowledge, which suits Abi's preference for process-oriented learning. The page provides a clear path to the list of issues, making it likely that Abi will know what to do at this step.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page clearly shows a list of issues under the "Issues" section, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, making it easy for ABI to identify and click on it. The page layout is straightforward, and the action of hovering over "Issues" and clicking on "List" is intuitive and does not require advanced technical skills. This aligns with ABI's preference for clear, comprehensive information and her motivation to accomplish her task efficiently.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and landing on this page, Abi will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page is well-organized, showing open, closed, and all issues, which helps Abi understand that she is making progress toward her goal. The comprehensive list of issues with relevant details (such as titles, status, and dates) provides all the information she needs to proceed, fitting her comprehensive information processing style. This will reassure Abi that she did the right thing and is on the right track.</t>
+Why: After clicking on "Issues" and landing on the issues list page, ABI will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page provides comprehensive information about each issue, including titles, labels, and statuses, which will help ABI understand that she is making progress toward her goal. The layout is straightforward and not overwhelming, making it easy for ABI to process the information and feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues with relevant details such as titles, status, and dates, which directly aligns with Abi's goal of finding an issue to solve. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would consider reviewing this list of issues as a necessary step toward finding the most appropriate issue to solve. The clear organization and presentation of information support her in making progress toward her overall use case.</t>
+Why: The page displays a list of issues, which is a logical next step for ABI in finding an appropriate issue to solve. The issues are clearly listed with relevant details such as titles, labels, and statuses, which will help ABI in identifying the most suitable issue for a newcomer. This aligns with ABI's motivation to find an issue to solve and her comprehensive information processing style, as she can gather all necessary details from this list to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page is well-organized and displays a list of issues with relevant details such as titles, status, and dates. This aligns with Abi's motivation to find an issue to solve and her comprehensive information processing style. The clear presentation of information makes it easy for Abi to read through the issues and determine if there is an appropriate one to solve. The page provides all the necessary information for Abi to take this action confidently.</t>
+Why: The page provides a clear list of issues with relevant details such as titles, labels, and statuses, which will help ABI in identifying the most suitable issue for a newcomer. The layout is straightforward and not overwhelming, making it easy for ABI to read through the issues. This aligns with ABI's motivation to find an issue to solve and her comprehensive information processing style, as she can gather all necessary details from this list to make an informed decision. The page is well-organized and provides the information ABI needs to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does provide a list of issues, it may not give Abi all the information she needs to determine if she is making progress toward her goal. The titles and statuses of the issues are visible, but Abi might need more detailed information about each issue to decide if it is appropriate for her to solve. Given her comprehensive information processing style, she would likely want to read the full descriptions and any associated comments or discussions. Additionally, due to her low computer self-efficacy, she might feel uncertain about whether she has enough information to proceed without more detailed guidance. Therefore, she might not feel confident that she is making progress toward her goal with the information currently presented.</t>
+Why: While the page does provide a list of issues, it may not give ABI all the information she needs to determine if an issue is appropriate for a newcomer. The titles and labels provide some context, but ABI might need more detailed information about the complexity and requirements of each issue to confidently decide if it is suitable for her skill level. Given ABI's comprehensive information processing style, she might feel uncertain without more detailed descriptions or guidance on which issues are beginner-friendly. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear indicators that she is on the right track.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly lists the issues with their respective numbers, titles, and statuses. Given Abi's comprehensive information processing style, she would likely understand that clicking on an issue number (such as #136) will provide more detailed information about that specific issue. The action of clicking on an issue to get more information is straightforward and aligns with her process-oriented learning style. The page is well-organized and provides a clear path for Abi to follow, making it likely that she will know what to do at this step.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: While the page lists the issues, it does not provide explicit instructions or guidance on what clicking on an issue will do. ABI, who has low computer self-efficacy and prefers process-oriented learning, might be hesitant to click on an issue without knowing what to expect. The page does not offer any indication that clicking on an issue will provide more detailed information, which could make ABI uncertain about taking this action. This lack of clarity and guidance could prevent ABI from confidently proceeding with this step.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, Abi lands on a detailed page that provides comprehensive information about the issue, including the title, description, steps to reproduce, and activity history. This aligns with Abi's motivation to find an issue to solve and her comprehensive information processing style. The detailed information helps Abi understand the issue fully and confirms that she is making progress toward her goal. The page layout is clear and organized, making it easy for Abi to see that she did the right thing and has all the information she needs to proceed.</t>
+Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the specific tasks required to resolve it. The page includes a clear description, relevant files, and activity history, which aligns with ABI's comprehensive information processing style. This detailed information will help ABI understand that she is making progress toward her goal of finding an appropriate issue to solve. The clarity and completeness of the information provided will also boost her motivation and confidence in proceeding with this issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/CHENNAI5.xlsx
+++ b/outputs/CHENNAI5.xlsx
@@ -424,9 +424,9 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. There is no clear indication or direct link to a list of issues. ABI, who prefers comprehensive information and is risk-averse, would not likely think of this page as a step toward finding a list of issues. The lack of explicit instructions or clear navigation to the issues list would make ABI hesitant and unsure, affecting her motivation and confidence in proceeding.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page contains a sidebar with a clear "Issues" tab, which is a common place to find a list of issues in repositories. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely recognize that clicking on the "Issues" tab is a necessary step toward finding a list of issues to solve.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly shows a list of issues under the "Issues" section, which aligns with ABI's goal of finding an issue to solve. The "Issues" tab is prominently displayed in the left-hand navigation menu, making it easy for ABI to identify and click on it. The page layout is straightforward, and the action of hovering over "Issues" and clicking on "List" is intuitive and does not require advanced technical skills. This aligns with ABI's preference for clear, comprehensive information and her motivation to accomplish her task efficiently.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Issues" tab is clearly labeled in the sidebar, which aligns with Abi's motivation to find a list of issues. The page layout is straightforward and not overwhelming, making it easy for Abi to identify the "Issues" tab as the next step. This aligns with her comprehensive information processing style, as she can easily see that clicking on "Issues" will likely lead her to the list of issues she is looking for.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Issues" and landing on the issues list page, ABI will see a clear list of issues, which directly aligns with her goal of finding an issue to solve. The page provides comprehensive information about each issue, including titles, labels, and statuses, which will help ABI understand that she is making progress toward her goal. The layout is straightforward and not overwhelming, making it easy for ABI to process the information and feel confident that she is on the right track.</t>
+Why: After clicking on the "Issues" tab, Abi will land on a page that clearly lists various issues. The page is well-organized, with issues categorized and labeled, making it easy for Abi to see that she has made progress toward her goal of finding a list of issues. The presence of open and closed issues, along with their descriptions and labels, provides comprehensive information that aligns with Abi's information processing style. This will help her feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page displays a list of issues, which is a logical next step for ABI in finding an appropriate issue to solve. The issues are clearly listed with relevant details such as titles, labels, and statuses, which will help ABI in identifying the most suitable issue for a newcomer. This aligns with ABI's motivation to find an issue to solve and her comprehensive information processing style, as she can gather all necessary details from this list to make an informed decision.</t>
+Why: The page clearly lists various issues, which is a logical next step for Abi to find the most appropriate issue to solve. Given her motivation to accomplish tasks and her comprehensive information processing style, Abi would recognize that reviewing the list of issues is necessary to identify one that is suitable for a newcomer. The page layout and categorization of issues provide a clear path for her to follow in achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear list of issues with relevant details such as titles, labels, and statuses, which will help ABI in identifying the most suitable issue for a newcomer. The layout is straightforward and not overwhelming, making it easy for ABI to read through the issues. This aligns with ABI's motivation to find an issue to solve and her comprehensive information processing style, as she can gather all necessary details from this list to make an informed decision. The page is well-organized and provides the information ABI needs to take this action confidently.</t>
+Why: The page provides a clear list of issues with titles and labels, which makes it straightforward for Abi to read through and identify an appropriate issue to solve. Given her motivation to find an issue and her comprehensive information processing style, Abi will know that she needs to read through the issues to find one that is suitable for a newcomer. The page layout is organized and not overwhelming, which will help her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page does provide a list of issues, it may not give ABI all the information she needs to determine if an issue is appropriate for a newcomer. The titles and labels provide some context, but ABI might need more detailed information about the complexity and requirements of each issue to confidently decide if it is suitable for her skill level. Given ABI's comprehensive information processing style, she might feel uncertain without more detailed descriptions or guidance on which issues are beginner-friendly. Additionally, her low computer self-efficacy might make her hesitant to proceed without clear indicators that she is on the right track.</t>
+Why: While the page lists various issues, it does not provide specific indicators or labels that identify which issues are appropriate for newcomers. Abi, with her comprehensive information processing style, might feel uncertain about which issue to choose without clear guidance. Additionally, her low computer self-efficacy might make her doubt whether she has selected the right issue, as there is no explicit information indicating which issues are suitable for newcomers. This lack of clear, targeted information could hinder her confidence in knowing she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,16 +480,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: While the page lists the issues, it does not provide explicit instructions or guidance on what clicking on an issue will do. ABI, who has low computer self-efficacy and prefers process-oriented learning, might be hesitant to click on an issue without knowing what to expect. The page does not offer any indication that clicking on an issue will provide more detailed information, which could make ABI uncertain about taking this action. This lack of clarity and guidance could prevent ABI from confidently proceeding with this step.</t>
+Why: The page does not provide any specific indication that clicking on issue #136 will lead to finding an appropriate issue for a newcomer. Abi's low computer self-efficacy might make her hesitant to click on an issue without clear guidance or assurance that it is the right action. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or labels indicating which issues are suitable for newcomers. Without this information, she might struggle to confidently take this action.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on issue #136, ABI will land on a detailed page that provides comprehensive information about the issue, including the specific tasks required to resolve it. The page includes a clear description, relevant files, and activity history, which aligns with ABI's comprehensive information processing style. This detailed information will help ABI understand that she is making progress toward her goal of finding an appropriate issue to solve. The clarity and completeness of the information provided will also boost her motivation and confidence in proceeding with this issue.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on issue #136, Abi lands on a detailed page about the issue. However, the page does not provide specific information indicating that this issue is appropriate for a newcomer. The detailed technical information might be overwhelming for Abi, given her low computer self-efficacy. Additionally, her comprehensive information processing style requires clear and explicit guidance, which is not provided here. Without clear indicators or labels suggesting that this issue is suitable for a newcomer, Abi might not feel confident that she has made the right choice or is making progress toward her goal.</t>
         </is>
       </c>
     </row>
